--- a/table/skin.xlsx
+++ b/table/skin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -58,10 +58,16 @@
     <t>Skin00-49</t>
   </si>
   <si>
+    <t>默认装扮。我只是一只孤独的美羊羊。</t>
+  </si>
+  <si>
     <t>卷羊</t>
   </si>
   <si>
     <t>skin_01</t>
+  </si>
+  <si>
+    <t>段位提升获得</t>
   </si>
   <si>
     <t>节日羊</t>
@@ -1690,10 +1696,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="16.7904761904762" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1743,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -1759,8 +1768,8 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -1768,16 +1777,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -1785,16 +1794,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -1802,16 +1811,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -1819,16 +1828,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -1836,16 +1845,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -1853,16 +1862,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
@@ -1870,16 +1879,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
@@ -1887,16 +1896,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
@@ -1904,16 +1913,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:5">
@@ -1921,16 +1930,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:5">
@@ -1938,16 +1947,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:5">
@@ -1955,16 +1964,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:5">
@@ -1972,16 +1981,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/table/skin.xlsx
+++ b/table/skin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28117" windowHeight="12360"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="skin" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>skin_01</t>
   </si>
   <si>
-    <t>段位提升获得</t>
+    <t>等级提升获得</t>
   </si>
   <si>
     <t>节日羊</t>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="12.75" outlineLevelCol="4"/>
